--- a/backend/data/PL/excel/evolucao_pl_diaria.xlsx
+++ b/backend/data/PL/excel/evolucao_pl_diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>Cliente</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
   </si>
   <si>
     <t>Adilson Ferreira da Silva Junior</t>
@@ -617,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC11"/>
+  <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:57">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,19 +792,25 @@
       <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:57">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>92128.01999999999</v>
@@ -953,19 +965,25 @@
       <c r="BC2">
         <v>93692.79000000001</v>
       </c>
+      <c r="BD2">
+        <v>93861.26000000001</v>
+      </c>
+      <c r="BE2">
+        <v>93948.05</v>
+      </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:57">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <v>452793.1900000002</v>
@@ -1118,21 +1136,27 @@
         <v>463311.8099999999</v>
       </c>
       <c r="BC3">
-        <v>460762.7499999999</v>
+        <v>460761.28</v>
+      </c>
+      <c r="BD3">
+        <v>461599.1</v>
+      </c>
+      <c r="BE3">
+        <v>462610.7899999999</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:57">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>76624.44000000002</v>
@@ -1287,19 +1311,25 @@
       <c r="BC4">
         <v>77673.66999999998</v>
       </c>
+      <c r="BD4">
+        <v>77750.41999999998</v>
+      </c>
+      <c r="BE4">
+        <v>77847.68000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:57">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <v>92721.89000000003</v>
@@ -1454,19 +1484,25 @@
       <c r="BC5">
         <v>94084.50999999999</v>
       </c>
+      <c r="BD5">
+        <v>94238.80000000002</v>
+      </c>
+      <c r="BE5">
+        <v>94400.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:57">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>109033.48</v>
@@ -1621,19 +1657,25 @@
       <c r="BC6">
         <v>111028.93</v>
       </c>
+      <c r="BD6">
+        <v>111724.18</v>
+      </c>
+      <c r="BE6">
+        <v>111979.8</v>
+      </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:57">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <v>1305850.93</v>
@@ -1788,19 +1830,25 @@
       <c r="BC7">
         <v>2194579.02</v>
       </c>
+      <c r="BD7">
+        <v>2199469.99</v>
+      </c>
+      <c r="BE7">
+        <v>2201683.74</v>
+      </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:57">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <v>69869.81</v>
@@ -1955,19 +2003,25 @@
       <c r="BC8">
         <v>70368.54000000001</v>
       </c>
+      <c r="BD8">
+        <v>70411.54000000001</v>
+      </c>
+      <c r="BE8">
+        <v>70451.97</v>
+      </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:57">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>116925.38</v>
@@ -2120,21 +2174,27 @@
         <v>117550.24</v>
       </c>
       <c r="BC9">
-        <v>117456.99</v>
+        <v>117455.45</v>
+      </c>
+      <c r="BD9">
+        <v>117608.13</v>
+      </c>
+      <c r="BE9">
+        <v>117707.27</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:57">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>95526.49000000001</v>
@@ -2289,19 +2349,25 @@
       <c r="BC10">
         <v>97101.94000000002</v>
       </c>
+      <c r="BD10">
+        <v>97369.30000000002</v>
+      </c>
+      <c r="BE10">
+        <v>97497.53000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:57">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M11">
         <v>138873.73</v>
@@ -2431,6 +2497,12 @@
       </c>
       <c r="BC11">
         <v>139784.01</v>
+      </c>
+      <c r="BD11">
+        <v>140127.84</v>
+      </c>
+      <c r="BE11">
+        <v>139991.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/PL/excel/evolucao_pl_diaria.xlsx
+++ b/backend/data/PL/excel/evolucao_pl_diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Cliente</t>
   </si>
@@ -212,36 +212,6 @@
   </si>
   <si>
     <t>Wanderley Crestoni Fernandes</t>
-  </si>
-  <si>
-    <t>05458975723</t>
-  </si>
-  <si>
-    <t>37994367828</t>
-  </si>
-  <si>
-    <t>30582702836</t>
-  </si>
-  <si>
-    <t>12512933873</t>
-  </si>
-  <si>
-    <t>32520950846</t>
-  </si>
-  <si>
-    <t>06120709053</t>
-  </si>
-  <si>
-    <t>05476840885</t>
-  </si>
-  <si>
-    <t>21244047848</t>
-  </si>
-  <si>
-    <t>46570551868</t>
-  </si>
-  <si>
-    <t>08944277842</t>
   </si>
   <si>
     <t>Francisco Luiz Hintze Maranho</t>
@@ -806,17 +776,17 @@
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>5458975723</v>
+      </c>
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
       <c r="E2">
-        <v>92128.01999999999</v>
+        <v>92128.02</v>
       </c>
       <c r="F2">
-        <v>92200.00999999998</v>
+        <v>92200.00999999999</v>
       </c>
       <c r="G2">
         <v>92293.48</v>
@@ -825,25 +795,25 @@
         <v>93253.33</v>
       </c>
       <c r="I2">
-        <v>92396.05000000002</v>
+        <v>92396.05</v>
       </c>
       <c r="J2">
-        <v>92396.05000000002</v>
+        <v>92396.05</v>
       </c>
       <c r="K2">
-        <v>92396.05000000002</v>
+        <v>92396.05</v>
       </c>
       <c r="L2">
-        <v>92389.11999999998</v>
+        <v>92389.12</v>
       </c>
       <c r="M2">
         <v>92330.73</v>
       </c>
       <c r="N2">
-        <v>92380.16000000002</v>
+        <v>92380.16</v>
       </c>
       <c r="O2">
-        <v>92519.31999999999</v>
+        <v>92519.32000000001</v>
       </c>
       <c r="P2">
         <v>92253.75</v>
@@ -858,10 +828,10 @@
         <v>92288.50999999999</v>
       </c>
       <c r="T2">
-        <v>92374.31000000001</v>
+        <v>92374.31</v>
       </c>
       <c r="U2">
-        <v>92232.00000000001</v>
+        <v>92232</v>
       </c>
       <c r="V2">
         <v>92240.85000000001</v>
@@ -876,10 +846,10 @@
         <v>92448.34</v>
       </c>
       <c r="Z2">
-        <v>92555.97000000003</v>
+        <v>92555.97</v>
       </c>
       <c r="AA2">
-        <v>92585.42000000001</v>
+        <v>92585.42</v>
       </c>
       <c r="AB2">
         <v>92680.82000000001</v>
@@ -888,25 +858,25 @@
         <v>92680.82000000001</v>
       </c>
       <c r="AD2">
-        <v>92729.80999999998</v>
+        <v>92729.81</v>
       </c>
       <c r="AE2">
-        <v>92729.80999999998</v>
+        <v>92729.81</v>
       </c>
       <c r="AF2">
-        <v>92729.80999999998</v>
+        <v>92729.81</v>
       </c>
       <c r="AG2">
-        <v>92653.26999999999</v>
+        <v>92653.27</v>
       </c>
       <c r="AH2">
-        <v>92608.51000000002</v>
+        <v>92608.50999999999</v>
       </c>
       <c r="AI2">
-        <v>92476.62999999999</v>
+        <v>92476.63</v>
       </c>
       <c r="AJ2">
-        <v>92476.62999999999</v>
+        <v>92476.63</v>
       </c>
       <c r="AK2">
         <v>92483.17999999999</v>
@@ -918,7 +888,7 @@
         <v>92483.17999999999</v>
       </c>
       <c r="AN2">
-        <v>92629.95000000001</v>
+        <v>92629.95</v>
       </c>
       <c r="AO2">
         <v>92723.69</v>
@@ -942,10 +912,10 @@
         <v>93685.03</v>
       </c>
       <c r="AV2">
-        <v>93672.48999999999</v>
+        <v>93672.49000000001</v>
       </c>
       <c r="AW2">
-        <v>93666.20999999996</v>
+        <v>93666.21000000001</v>
       </c>
       <c r="AX2">
         <v>93659.87</v>
@@ -963,10 +933,10 @@
         <v>93825.3</v>
       </c>
       <c r="BC2">
-        <v>93692.79000000001</v>
+        <v>93692.78999999999</v>
       </c>
       <c r="BD2">
-        <v>93861.26000000001</v>
+        <v>93861.25999999999</v>
       </c>
       <c r="BE2">
         <v>93948.05</v>
@@ -979,11 +949,11 @@
       <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>37994367828</v>
+      </c>
+      <c r="D3" t="s">
         <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
       </c>
       <c r="E3">
         <v>452793.1900000002</v>
@@ -1152,14 +1122,14 @@
       <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>30582702836</v>
+      </c>
+      <c r="D4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
       <c r="E4">
-        <v>76624.44000000002</v>
+        <v>76624.44</v>
       </c>
       <c r="F4">
         <v>76664.78</v>
@@ -1189,7 +1159,7 @@
         <v>76546</v>
       </c>
       <c r="O4">
-        <v>76745.31999999999</v>
+        <v>76745.32000000001</v>
       </c>
       <c r="P4">
         <v>76636.64</v>
@@ -1201,7 +1171,7 @@
         <v>76636.64</v>
       </c>
       <c r="S4">
-        <v>76708.04000000001</v>
+        <v>76708.03999999999</v>
       </c>
       <c r="T4">
         <v>76752.83</v>
@@ -1213,19 +1183,19 @@
         <v>76733.98</v>
       </c>
       <c r="W4">
-        <v>76849.61000000002</v>
+        <v>76849.61</v>
       </c>
       <c r="X4">
-        <v>76849.61000000002</v>
+        <v>76849.61</v>
       </c>
       <c r="Y4">
-        <v>76849.61000000002</v>
+        <v>76849.61</v>
       </c>
       <c r="Z4">
         <v>76911.08</v>
       </c>
       <c r="AA4">
-        <v>76957.75000000001</v>
+        <v>76957.75</v>
       </c>
       <c r="AB4">
         <v>76991.67999999999</v>
@@ -1234,25 +1204,25 @@
         <v>76991.67999999999</v>
       </c>
       <c r="AD4">
-        <v>77014.12000000001</v>
+        <v>77014.12</v>
       </c>
       <c r="AE4">
-        <v>77014.12000000001</v>
+        <v>77014.12</v>
       </c>
       <c r="AF4">
-        <v>77014.12000000001</v>
+        <v>77014.12</v>
       </c>
       <c r="AG4">
         <v>77070.16</v>
       </c>
       <c r="AH4">
-        <v>77089.62999999999</v>
+        <v>77089.63</v>
       </c>
       <c r="AI4">
-        <v>77005.45000000001</v>
+        <v>77005.45</v>
       </c>
       <c r="AJ4">
-        <v>77005.45000000001</v>
+        <v>77005.45</v>
       </c>
       <c r="AK4">
         <v>76959.13</v>
@@ -1264,16 +1234,16 @@
         <v>76959.13</v>
       </c>
       <c r="AN4">
-        <v>77092.90999999999</v>
+        <v>77092.91</v>
       </c>
       <c r="AO4">
-        <v>77180.45999999999</v>
+        <v>77180.46000000001</v>
       </c>
       <c r="AP4">
-        <v>77314.98000000001</v>
+        <v>77314.98</v>
       </c>
       <c r="AQ4">
-        <v>77198.51999999999</v>
+        <v>77198.52</v>
       </c>
       <c r="AR4">
         <v>77229.67</v>
@@ -1294,7 +1264,7 @@
         <v>77817.83</v>
       </c>
       <c r="AX4">
-        <v>77785.23000000001</v>
+        <v>77785.23</v>
       </c>
       <c r="AY4">
         <v>77882.42</v>
@@ -1309,13 +1279,13 @@
         <v>77882.42</v>
       </c>
       <c r="BC4">
-        <v>77673.66999999998</v>
+        <v>77673.67</v>
       </c>
       <c r="BD4">
-        <v>77750.41999999998</v>
+        <v>77750.42</v>
       </c>
       <c r="BE4">
-        <v>77847.68000000001</v>
+        <v>77847.67999999999</v>
       </c>
     </row>
     <row r="5" spans="1:57">
@@ -1325,23 +1295,23 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
-        <v>69</v>
+      <c r="C5">
+        <v>12512933873</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E5">
-        <v>92721.89000000003</v>
+        <v>92721.89</v>
       </c>
       <c r="F5">
-        <v>92795.23999999999</v>
+        <v>92795.24000000001</v>
       </c>
       <c r="G5">
         <v>93025.85000000001</v>
       </c>
       <c r="H5">
-        <v>92994.07999999999</v>
+        <v>92994.08</v>
       </c>
       <c r="I5">
         <v>92942.08</v>
@@ -1356,13 +1326,13 @@
         <v>92947.78999999999</v>
       </c>
       <c r="M5">
-        <v>93030.28000000001</v>
+        <v>93030.28</v>
       </c>
       <c r="N5">
-        <v>93120.95999999999</v>
+        <v>93120.96000000001</v>
       </c>
       <c r="O5">
-        <v>93239.88999999998</v>
+        <v>93239.89</v>
       </c>
       <c r="P5">
         <v>93071.71000000001</v>
@@ -1380,7 +1350,7 @@
         <v>93221.59</v>
       </c>
       <c r="U5">
-        <v>93070.01000000001</v>
+        <v>93070.00999999999</v>
       </c>
       <c r="V5">
         <v>93199.77</v>
@@ -1401,10 +1371,10 @@
         <v>93438.00999999999</v>
       </c>
       <c r="AB5">
-        <v>93467.87000000001</v>
+        <v>93467.87</v>
       </c>
       <c r="AC5">
-        <v>93467.87000000001</v>
+        <v>93467.87</v>
       </c>
       <c r="AD5">
         <v>93501.3</v>
@@ -1419,7 +1389,7 @@
         <v>93593.78</v>
       </c>
       <c r="AH5">
-        <v>93586.84999999999</v>
+        <v>93586.85000000001</v>
       </c>
       <c r="AI5">
         <v>93593.06</v>
@@ -1428,16 +1398,16 @@
         <v>93593.06</v>
       </c>
       <c r="AK5">
-        <v>93541.87000000001</v>
+        <v>93541.87</v>
       </c>
       <c r="AL5">
-        <v>93541.87000000001</v>
+        <v>93541.87</v>
       </c>
       <c r="AM5">
-        <v>93541.87000000001</v>
+        <v>93541.87</v>
       </c>
       <c r="AN5">
-        <v>93643.89000000001</v>
+        <v>93643.89</v>
       </c>
       <c r="AO5">
         <v>93912.21000000001</v>
@@ -1458,7 +1428,7 @@
         <v>94120.61</v>
       </c>
       <c r="AU5">
-        <v>94145.16999999998</v>
+        <v>94145.17</v>
       </c>
       <c r="AV5">
         <v>94241.14</v>
@@ -1467,25 +1437,25 @@
         <v>94281.77</v>
       </c>
       <c r="AX5">
-        <v>94351.26000000001</v>
+        <v>94351.25999999999</v>
       </c>
       <c r="AY5">
-        <v>94430.20000000001</v>
+        <v>94430.2</v>
       </c>
       <c r="AZ5">
-        <v>94430.20000000001</v>
+        <v>94430.2</v>
       </c>
       <c r="BA5">
-        <v>94430.20000000001</v>
+        <v>94430.2</v>
       </c>
       <c r="BB5">
-        <v>94430.20000000001</v>
+        <v>94430.2</v>
       </c>
       <c r="BC5">
         <v>94084.50999999999</v>
       </c>
       <c r="BD5">
-        <v>94238.80000000002</v>
+        <v>94238.8</v>
       </c>
       <c r="BE5">
         <v>94400.7</v>
@@ -1498,11 +1468,11 @@
       <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
-        <v>70</v>
+      <c r="C6">
+        <v>32520950846</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>109033.48</v>
@@ -1671,11 +1641,11 @@
       <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" t="s">
-        <v>71</v>
+      <c r="C7">
+        <v>6120709053</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>1305850.93</v>
@@ -1844,11 +1814,11 @@
       <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
-        <v>72</v>
+      <c r="C8">
+        <v>5476840885</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>69869.81</v>
@@ -1860,7 +1830,7 @@
         <v>69957.91</v>
       </c>
       <c r="H8">
-        <v>69945.29000000001</v>
+        <v>69945.28999999999</v>
       </c>
       <c r="I8">
         <v>70079.55</v>
@@ -1980,7 +1950,7 @@
         <v>70035.99000000001</v>
       </c>
       <c r="AV8">
-        <v>70038.79000000001</v>
+        <v>70038.78999999999</v>
       </c>
       <c r="AW8">
         <v>70036.55</v>
@@ -2001,10 +1971,10 @@
         <v>70418.14</v>
       </c>
       <c r="BC8">
-        <v>70368.54000000001</v>
+        <v>70368.53999999999</v>
       </c>
       <c r="BD8">
-        <v>70411.54000000001</v>
+        <v>70411.53999999999</v>
       </c>
       <c r="BE8">
         <v>70451.97</v>
@@ -2017,11 +1987,11 @@
       <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
-        <v>73</v>
+      <c r="C9">
+        <v>21244047848</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>116925.38</v>
@@ -2190,17 +2160,17 @@
       <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
-        <v>74</v>
+      <c r="C10">
+        <v>46570551868</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>95526.49000000001</v>
       </c>
       <c r="F10">
-        <v>95559.83000000002</v>
+        <v>95559.83</v>
       </c>
       <c r="G10">
         <v>95638.14</v>
@@ -2209,22 +2179,22 @@
         <v>95683.92</v>
       </c>
       <c r="I10">
-        <v>95755.19999999998</v>
+        <v>95755.2</v>
       </c>
       <c r="J10">
-        <v>95755.19999999998</v>
+        <v>95755.2</v>
       </c>
       <c r="K10">
-        <v>95755.19999999998</v>
+        <v>95755.2</v>
       </c>
       <c r="L10">
-        <v>95691.16000000002</v>
+        <v>95691.16</v>
       </c>
       <c r="M10">
         <v>95655.7</v>
       </c>
       <c r="N10">
-        <v>95769.82999999999</v>
+        <v>95769.83</v>
       </c>
       <c r="O10">
         <v>95819.38</v>
@@ -2239,25 +2209,25 @@
         <v>95566.33</v>
       </c>
       <c r="S10">
-        <v>95555.67999999998</v>
+        <v>95555.67999999999</v>
       </c>
       <c r="T10">
-        <v>95518.99999999999</v>
+        <v>95519</v>
       </c>
       <c r="U10">
         <v>95352.39</v>
       </c>
       <c r="V10">
-        <v>95474.62999999999</v>
+        <v>95474.63</v>
       </c>
       <c r="W10">
-        <v>95572.55999999998</v>
+        <v>95572.56</v>
       </c>
       <c r="X10">
-        <v>95572.55999999998</v>
+        <v>95572.56</v>
       </c>
       <c r="Y10">
-        <v>95572.55999999998</v>
+        <v>95572.56</v>
       </c>
       <c r="Z10">
         <v>95646.32000000001</v>
@@ -2266,31 +2236,31 @@
         <v>95788.91</v>
       </c>
       <c r="AB10">
-        <v>95894.46000000002</v>
+        <v>95894.46000000001</v>
       </c>
       <c r="AC10">
-        <v>95894.46000000002</v>
+        <v>95894.46000000001</v>
       </c>
       <c r="AD10">
-        <v>95983.29000000001</v>
+        <v>95983.28999999999</v>
       </c>
       <c r="AE10">
-        <v>95983.29000000001</v>
+        <v>95983.28999999999</v>
       </c>
       <c r="AF10">
-        <v>95983.29000000001</v>
+        <v>95983.28999999999</v>
       </c>
       <c r="AG10">
-        <v>95822.08999999998</v>
+        <v>95822.09</v>
       </c>
       <c r="AH10">
         <v>95835.64999999999</v>
       </c>
       <c r="AI10">
-        <v>95744.05000000002</v>
+        <v>95744.05</v>
       </c>
       <c r="AJ10">
-        <v>95744.05000000002</v>
+        <v>95744.05</v>
       </c>
       <c r="AK10">
         <v>95882.28</v>
@@ -2302,13 +2272,13 @@
         <v>95882.28</v>
       </c>
       <c r="AN10">
-        <v>96059.59999999999</v>
+        <v>96059.60000000001</v>
       </c>
       <c r="AO10">
-        <v>96191.99999999999</v>
+        <v>96192</v>
       </c>
       <c r="AP10">
-        <v>96097.75000000001</v>
+        <v>96097.75</v>
       </c>
       <c r="AQ10">
         <v>96123.56</v>
@@ -2329,31 +2299,31 @@
         <v>107318.63</v>
       </c>
       <c r="AW10">
-        <v>96929.40999999999</v>
+        <v>96929.41</v>
       </c>
       <c r="AX10">
-        <v>96970.69000000002</v>
+        <v>96970.69</v>
       </c>
       <c r="AY10">
-        <v>97270.83999999998</v>
+        <v>97270.84</v>
       </c>
       <c r="AZ10">
-        <v>97270.83999999998</v>
+        <v>97270.84</v>
       </c>
       <c r="BA10">
-        <v>97270.83999999998</v>
+        <v>97270.84</v>
       </c>
       <c r="BB10">
-        <v>97270.83999999998</v>
+        <v>97270.84</v>
       </c>
       <c r="BC10">
-        <v>97101.94000000002</v>
+        <v>97101.94</v>
       </c>
       <c r="BD10">
-        <v>97369.30000000002</v>
+        <v>97369.3</v>
       </c>
       <c r="BE10">
-        <v>97497.53000000001</v>
+        <v>97497.53</v>
       </c>
     </row>
     <row r="11" spans="1:57">
@@ -2363,11 +2333,11 @@
       <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
-        <v>75</v>
+      <c r="C11">
+        <v>8944277842</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="M11">
         <v>138873.73</v>

--- a/backend/data/PL/excel/evolucao_pl_diaria.xlsx
+++ b/backend/data/PL/excel/evolucao_pl_diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
   <si>
     <t>Cliente</t>
   </si>
@@ -23,6 +23,96 @@
   </si>
   <si>
     <t>Banker</t>
+  </si>
+  <si>
+    <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
   </si>
   <si>
     <t>2025-12-01</t>
@@ -632,13 +722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH11"/>
+  <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:90">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,1800 +906,2613 @@
       <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:90">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E2">
+        <v>91938.23000000001</v>
+      </c>
+      <c r="F2">
+        <v>91938.23000000001</v>
+      </c>
+      <c r="G2">
+        <v>91868.27999999998</v>
+      </c>
+      <c r="H2">
+        <v>91481.32000000001</v>
+      </c>
+      <c r="I2">
+        <v>91395.09999999999</v>
+      </c>
+      <c r="J2">
+        <v>91501.49000000001</v>
+      </c>
+      <c r="K2">
+        <v>91582.79000000001</v>
+      </c>
+      <c r="L2">
+        <v>91582.79000000001</v>
+      </c>
+      <c r="M2">
+        <v>91582.79000000001</v>
+      </c>
+      <c r="N2">
+        <v>91769.21000000001</v>
+      </c>
+      <c r="O2">
+        <v>91936.45</v>
+      </c>
+      <c r="P2">
+        <v>92333.86</v>
+      </c>
+      <c r="Q2">
+        <v>92309.84000000001</v>
+      </c>
+      <c r="R2">
+        <v>92233.85999999999</v>
+      </c>
+      <c r="S2">
+        <v>92233.85999999999</v>
+      </c>
+      <c r="T2">
+        <v>92233.85999999999</v>
+      </c>
+      <c r="U2">
+        <v>92007.56999999999</v>
+      </c>
+      <c r="V2">
+        <v>91814.54999999997</v>
+      </c>
+      <c r="W2">
+        <v>91790.77</v>
+      </c>
+      <c r="X2">
+        <v>91624.44</v>
+      </c>
+      <c r="Y2">
+        <v>91645.56</v>
+      </c>
+      <c r="Z2">
+        <v>91645.56</v>
+      </c>
+      <c r="AA2">
+        <v>91645.56</v>
+      </c>
+      <c r="AB2">
+        <v>91865.22</v>
+      </c>
+      <c r="AC2">
+        <v>92071.38</v>
+      </c>
+      <c r="AD2">
+        <v>92136.00999999999</v>
+      </c>
+      <c r="AE2">
+        <v>92136.00999999999</v>
+      </c>
+      <c r="AF2">
+        <v>92190.75000000001</v>
+      </c>
+      <c r="AG2">
+        <v>92190.75000000001</v>
+      </c>
+      <c r="AH2">
+        <v>92190.75000000001</v>
+      </c>
+      <c r="AI2">
         <v>92128.01999999999</v>
       </c>
-      <c r="F2">
+      <c r="AJ2">
         <v>92200.00999999998</v>
       </c>
-      <c r="G2">
+      <c r="AK2">
         <v>92293.48</v>
       </c>
-      <c r="H2">
+      <c r="AL2">
         <v>93253.33</v>
       </c>
-      <c r="I2">
+      <c r="AM2">
         <v>92396.05000000002</v>
       </c>
-      <c r="J2">
+      <c r="AN2">
         <v>92396.05000000002</v>
       </c>
-      <c r="K2">
+      <c r="AO2">
         <v>92396.05000000002</v>
       </c>
-      <c r="L2">
+      <c r="AP2">
         <v>92389.11999999998</v>
       </c>
-      <c r="M2">
+      <c r="AQ2">
         <v>92330.73</v>
       </c>
-      <c r="N2">
+      <c r="AR2">
         <v>92380.16000000002</v>
       </c>
-      <c r="O2">
+      <c r="AS2">
         <v>92519.31999999999</v>
       </c>
-      <c r="P2">
+      <c r="AT2">
         <v>92253.75</v>
       </c>
-      <c r="Q2">
+      <c r="AU2">
         <v>92253.75</v>
       </c>
-      <c r="R2">
+      <c r="AV2">
         <v>92253.75</v>
       </c>
-      <c r="S2">
+      <c r="AW2">
         <v>92288.50999999999</v>
       </c>
-      <c r="T2">
+      <c r="AX2">
         <v>92374.31000000001</v>
       </c>
-      <c r="U2">
+      <c r="AY2">
         <v>92232.00000000001</v>
       </c>
-      <c r="V2">
+      <c r="AZ2">
         <v>92240.85000000001</v>
       </c>
-      <c r="W2">
+      <c r="BA2">
         <v>92448.34</v>
       </c>
-      <c r="X2">
+      <c r="BB2">
         <v>92448.34</v>
       </c>
-      <c r="Y2">
+      <c r="BC2">
         <v>92448.34</v>
       </c>
-      <c r="Z2">
+      <c r="BD2">
         <v>92555.97000000003</v>
       </c>
-      <c r="AA2">
+      <c r="BE2">
         <v>92585.42000000001</v>
       </c>
-      <c r="AB2">
+      <c r="BF2">
         <v>92680.82000000001</v>
       </c>
-      <c r="AC2">
+      <c r="BG2">
         <v>92680.82000000001</v>
       </c>
-      <c r="AD2">
+      <c r="BH2">
         <v>92729.80999999998</v>
       </c>
-      <c r="AE2">
+      <c r="BI2">
         <v>92729.80999999998</v>
       </c>
-      <c r="AF2">
+      <c r="BJ2">
         <v>92729.80999999998</v>
       </c>
-      <c r="AG2">
+      <c r="BK2">
         <v>92653.26999999999</v>
       </c>
-      <c r="AH2">
+      <c r="BL2">
         <v>92608.51000000002</v>
       </c>
-      <c r="AI2">
+      <c r="BM2">
         <v>92476.62999999999</v>
       </c>
-      <c r="AJ2">
+      <c r="BN2">
         <v>92476.62999999999</v>
       </c>
-      <c r="AK2">
+      <c r="BO2">
         <v>92483.17999999999</v>
       </c>
-      <c r="AL2">
+      <c r="BP2">
         <v>92483.17999999999</v>
       </c>
-      <c r="AM2">
+      <c r="BQ2">
         <v>92483.17999999999</v>
       </c>
-      <c r="AN2">
+      <c r="BR2">
         <v>92629.95000000001</v>
       </c>
-      <c r="AO2">
+      <c r="BS2">
         <v>92723.69</v>
       </c>
-      <c r="AP2">
+      <c r="BT2">
         <v>92862.84</v>
       </c>
-      <c r="AQ2">
+      <c r="BU2">
         <v>92729.55</v>
       </c>
-      <c r="AR2">
+      <c r="BV2">
         <v>93627.45</v>
       </c>
-      <c r="AS2">
+      <c r="BW2">
         <v>93627.45</v>
       </c>
-      <c r="AT2">
+      <c r="BX2">
         <v>93627.45</v>
       </c>
-      <c r="AU2">
+      <c r="BY2">
         <v>93685.03</v>
       </c>
-      <c r="AV2">
+      <c r="BZ2">
         <v>93672.48999999999</v>
       </c>
-      <c r="AW2">
+      <c r="CA2">
         <v>93666.20999999996</v>
       </c>
-      <c r="AX2">
+      <c r="CB2">
         <v>93659.87</v>
       </c>
-      <c r="AY2">
+      <c r="CC2">
         <v>93825.27</v>
       </c>
-      <c r="AZ2">
+      <c r="CD2">
         <v>93825.27</v>
       </c>
-      <c r="BA2">
+      <c r="CE2">
         <v>93825.27</v>
       </c>
-      <c r="BB2">
+      <c r="CF2">
         <v>93825.3</v>
       </c>
-      <c r="BC2">
+      <c r="CG2">
         <v>93692.79000000001</v>
       </c>
-      <c r="BD2">
+      <c r="CH2">
         <v>93861.26000000001</v>
       </c>
-      <c r="BE2">
+      <c r="CI2">
         <v>93948.05</v>
       </c>
-      <c r="BF2">
+      <c r="CJ2">
         <v>94006.17</v>
       </c>
-      <c r="BG2">
+      <c r="CK2">
         <v>94006.17</v>
       </c>
-      <c r="BH2">
+      <c r="CL2">
         <v>94006.17</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:90">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3">
+        <v>110</v>
+      </c>
+      <c r="Q3">
+        <v>455357.78</v>
+      </c>
+      <c r="R3">
+        <v>453784.81</v>
+      </c>
+      <c r="S3">
+        <v>453784.81</v>
+      </c>
+      <c r="T3">
+        <v>453784.81</v>
+      </c>
+      <c r="U3">
+        <v>453659.0200000001</v>
+      </c>
+      <c r="V3">
+        <v>445196.4599999999</v>
+      </c>
+      <c r="W3">
+        <v>447575.54</v>
+      </c>
+      <c r="X3">
+        <v>433908.55</v>
+      </c>
+      <c r="Y3">
+        <v>446812.4699999999</v>
+      </c>
+      <c r="Z3">
+        <v>446812.4699999999</v>
+      </c>
+      <c r="AA3">
+        <v>446812.4699999999</v>
+      </c>
+      <c r="AB3">
+        <v>449913.4199999999</v>
+      </c>
+      <c r="AC3">
+        <v>451103.16</v>
+      </c>
+      <c r="AD3">
+        <v>452426.9399999999</v>
+      </c>
+      <c r="AE3">
+        <v>452426.9399999999</v>
+      </c>
+      <c r="AF3">
+        <v>453501.51</v>
+      </c>
+      <c r="AG3">
+        <v>453501.51</v>
+      </c>
+      <c r="AH3">
+        <v>453501.51</v>
+      </c>
+      <c r="AI3">
         <v>452793.1900000002</v>
       </c>
-      <c r="F3">
+      <c r="AJ3">
         <v>454173.81</v>
       </c>
-      <c r="G3">
+      <c r="AK3">
         <v>454521.1000000001</v>
       </c>
-      <c r="H3">
+      <c r="AL3">
         <v>454874.42</v>
       </c>
-      <c r="I3">
+      <c r="AM3">
         <v>455697.5100000001</v>
       </c>
-      <c r="J3">
+      <c r="AN3">
         <v>455697.5100000001</v>
       </c>
-      <c r="K3">
+      <c r="AO3">
         <v>455697.5100000001</v>
       </c>
-      <c r="L3">
+      <c r="AP3">
         <v>455952.6800000001</v>
       </c>
-      <c r="M3">
+      <c r="AQ3">
         <v>456087.2700000001</v>
       </c>
-      <c r="N3">
+      <c r="AR3">
         <v>456555.26</v>
       </c>
-      <c r="O3">
+      <c r="AS3">
         <v>457001.6200000001</v>
       </c>
-      <c r="P3">
+      <c r="AT3">
         <v>458190.4499999999</v>
       </c>
-      <c r="Q3">
+      <c r="AU3">
         <v>458190.4499999999</v>
       </c>
-      <c r="R3">
+      <c r="AV3">
         <v>458190.4499999999</v>
       </c>
-      <c r="S3">
+      <c r="AW3">
         <v>459041.37</v>
       </c>
-      <c r="T3">
+      <c r="AX3">
         <v>458724.53</v>
       </c>
-      <c r="U3">
+      <c r="AY3">
         <v>458588.9199999999</v>
       </c>
-      <c r="V3">
+      <c r="AZ3">
         <v>458602.51</v>
       </c>
-      <c r="W3">
+      <c r="BA3">
         <v>459298.18</v>
       </c>
-      <c r="X3">
+      <c r="BB3">
         <v>459298.18</v>
       </c>
-      <c r="Y3">
+      <c r="BC3">
         <v>459298.18</v>
       </c>
-      <c r="Z3">
+      <c r="BD3">
         <v>459826.4399999999</v>
       </c>
-      <c r="AA3">
+      <c r="BE3">
         <v>459964.2399999999</v>
       </c>
-      <c r="AB3">
+      <c r="BF3">
         <v>460080.7500000001</v>
       </c>
-      <c r="AC3">
+      <c r="BG3">
         <v>460080.7500000001</v>
       </c>
-      <c r="AD3">
+      <c r="BH3">
         <v>460404.17</v>
       </c>
-      <c r="AE3">
+      <c r="BI3">
         <v>460404.17</v>
       </c>
-      <c r="AF3">
+      <c r="BJ3">
         <v>460404.17</v>
       </c>
-      <c r="AG3">
+      <c r="BK3">
         <v>460652.2</v>
       </c>
-      <c r="AH3">
+      <c r="BL3">
         <v>460867.16</v>
       </c>
-      <c r="AI3">
+      <c r="BM3">
         <v>460414.9199999999</v>
       </c>
-      <c r="AJ3">
+      <c r="BN3">
         <v>460414.9199999999</v>
       </c>
-      <c r="AK3">
+      <c r="BO3">
         <v>461050.37</v>
       </c>
-      <c r="AL3">
+      <c r="BP3">
         <v>461050.37</v>
       </c>
-      <c r="AM3">
+      <c r="BQ3">
         <v>461050.37</v>
       </c>
-      <c r="AN3">
+      <c r="BR3">
         <v>461777.5399999999</v>
       </c>
-      <c r="AO3">
+      <c r="BS3">
         <v>462869.03</v>
       </c>
-      <c r="AP3">
+      <c r="BT3">
         <v>463367.68</v>
       </c>
-      <c r="AQ3">
+      <c r="BU3">
         <v>462299.62</v>
       </c>
-      <c r="AR3">
+      <c r="BV3">
         <v>463019.34</v>
       </c>
-      <c r="AS3">
+      <c r="BW3">
         <v>463019.34</v>
       </c>
-      <c r="AT3">
+      <c r="BX3">
         <v>463019.34</v>
       </c>
-      <c r="AU3">
+      <c r="BY3">
         <v>463848.3399999999</v>
       </c>
-      <c r="AV3">
+      <c r="BZ3">
         <v>464075.7199999999</v>
       </c>
-      <c r="AW3">
+      <c r="CA3">
         <v>462920.5500000002</v>
       </c>
-      <c r="AX3">
+      <c r="CB3">
         <v>464162.68</v>
       </c>
-      <c r="AY3">
+      <c r="CC3">
         <v>463311.8099999999</v>
       </c>
-      <c r="AZ3">
+      <c r="CD3">
         <v>463311.8099999999</v>
       </c>
-      <c r="BA3">
+      <c r="CE3">
         <v>463311.8099999999</v>
       </c>
-      <c r="BB3">
+      <c r="CF3">
         <v>463311.8099999999</v>
       </c>
-      <c r="BC3">
+      <c r="CG3">
         <v>460761.28</v>
       </c>
-      <c r="BD3">
+      <c r="CH3">
         <v>461599.1</v>
       </c>
-      <c r="BE3">
+      <c r="CI3">
         <v>462485.7499999998</v>
       </c>
-      <c r="BF3">
+      <c r="CJ3">
         <v>462429.2399999999</v>
       </c>
-      <c r="BG3">
+      <c r="CK3">
         <v>462429.2399999999</v>
       </c>
-      <c r="BH3">
+      <c r="CL3">
         <v>462429.2399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:90">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4">
+        <v>111</v>
+      </c>
+      <c r="R4">
+        <v>76531.56</v>
+      </c>
+      <c r="S4">
+        <v>76531.56</v>
+      </c>
+      <c r="T4">
+        <v>76531.56</v>
+      </c>
+      <c r="U4">
+        <v>76521.66</v>
+      </c>
+      <c r="V4">
+        <v>76332.69000000002</v>
+      </c>
+      <c r="W4">
+        <v>76291.48999999999</v>
+      </c>
+      <c r="X4">
+        <v>76271.77</v>
+      </c>
+      <c r="Y4">
+        <v>76208.01999999999</v>
+      </c>
+      <c r="Z4">
+        <v>76208.01999999999</v>
+      </c>
+      <c r="AA4">
+        <v>76208.01999999999</v>
+      </c>
+      <c r="AB4">
+        <v>76374.56999999999</v>
+      </c>
+      <c r="AC4">
+        <v>76473.18000000001</v>
+      </c>
+      <c r="AD4">
+        <v>76629.00000000001</v>
+      </c>
+      <c r="AE4">
+        <v>76629.00000000001</v>
+      </c>
+      <c r="AF4">
+        <v>76648.31999999999</v>
+      </c>
+      <c r="AG4">
+        <v>76648.31999999999</v>
+      </c>
+      <c r="AH4">
+        <v>76648.31999999999</v>
+      </c>
+      <c r="AI4">
         <v>76624.44000000002</v>
       </c>
-      <c r="F4">
+      <c r="AJ4">
         <v>76664.78</v>
       </c>
-      <c r="G4">
+      <c r="AK4">
         <v>76699.56</v>
       </c>
-      <c r="H4">
+      <c r="AL4">
         <v>76633.58</v>
       </c>
-      <c r="I4">
+      <c r="AM4">
         <v>76620.22</v>
       </c>
-      <c r="J4">
+      <c r="AN4">
         <v>76620.22</v>
       </c>
-      <c r="K4">
+      <c r="AO4">
         <v>76620.22</v>
       </c>
-      <c r="L4">
+      <c r="AP4">
         <v>76617.16</v>
       </c>
-      <c r="M4">
+      <c r="AQ4">
         <v>76558.08</v>
       </c>
-      <c r="N4">
+      <c r="AR4">
         <v>76546</v>
       </c>
-      <c r="O4">
+      <c r="AS4">
         <v>76745.31999999999</v>
       </c>
-      <c r="P4">
+      <c r="AT4">
         <v>76636.64</v>
       </c>
-      <c r="Q4">
+      <c r="AU4">
         <v>76636.64</v>
       </c>
-      <c r="R4">
+      <c r="AV4">
         <v>76636.64</v>
       </c>
-      <c r="S4">
+      <c r="AW4">
         <v>76708.04000000001</v>
       </c>
-      <c r="T4">
+      <c r="AX4">
         <v>76752.83</v>
       </c>
-      <c r="U4">
+      <c r="AY4">
         <v>76621.38</v>
       </c>
-      <c r="V4">
+      <c r="AZ4">
         <v>76733.98</v>
       </c>
-      <c r="W4">
+      <c r="BA4">
         <v>76849.61000000002</v>
       </c>
-      <c r="X4">
+      <c r="BB4">
         <v>76849.61000000002</v>
       </c>
-      <c r="Y4">
+      <c r="BC4">
         <v>76849.61000000002</v>
       </c>
-      <c r="Z4">
+      <c r="BD4">
         <v>76911.08</v>
       </c>
-      <c r="AA4">
+      <c r="BE4">
         <v>76957.75000000001</v>
       </c>
-      <c r="AB4">
+      <c r="BF4">
         <v>76991.67999999999</v>
       </c>
-      <c r="AC4">
+      <c r="BG4">
         <v>76991.67999999999</v>
       </c>
-      <c r="AD4">
+      <c r="BH4">
         <v>77014.12000000001</v>
       </c>
-      <c r="AE4">
+      <c r="BI4">
         <v>77014.12000000001</v>
       </c>
-      <c r="AF4">
+      <c r="BJ4">
         <v>77014.12000000001</v>
       </c>
-      <c r="AG4">
+      <c r="BK4">
         <v>77070.16</v>
       </c>
-      <c r="AH4">
+      <c r="BL4">
         <v>77089.62999999999</v>
       </c>
-      <c r="AI4">
+      <c r="BM4">
         <v>77005.45000000001</v>
       </c>
-      <c r="AJ4">
+      <c r="BN4">
         <v>77005.45000000001</v>
       </c>
-      <c r="AK4">
+      <c r="BO4">
         <v>76959.13</v>
       </c>
-      <c r="AL4">
+      <c r="BP4">
         <v>76959.13</v>
       </c>
-      <c r="AM4">
+      <c r="BQ4">
         <v>76959.13</v>
       </c>
-      <c r="AN4">
+      <c r="BR4">
         <v>77092.90999999999</v>
       </c>
-      <c r="AO4">
+      <c r="BS4">
         <v>77180.45999999999</v>
       </c>
-      <c r="AP4">
+      <c r="BT4">
         <v>77314.98000000001</v>
       </c>
-      <c r="AQ4">
+      <c r="BU4">
         <v>77198.51999999999</v>
       </c>
-      <c r="AR4">
+      <c r="BV4">
         <v>77229.67</v>
       </c>
-      <c r="AS4">
+      <c r="BW4">
         <v>77229.67</v>
       </c>
-      <c r="AT4">
+      <c r="BX4">
         <v>77229.67</v>
       </c>
-      <c r="AU4">
+      <c r="BY4">
         <v>77754.53</v>
       </c>
-      <c r="AV4">
+      <c r="BZ4">
         <v>77818.07000000001</v>
       </c>
-      <c r="AW4">
+      <c r="CA4">
         <v>77817.83</v>
       </c>
-      <c r="AX4">
+      <c r="CB4">
         <v>77785.23000000001</v>
       </c>
-      <c r="AY4">
+      <c r="CC4">
         <v>77882.42</v>
       </c>
-      <c r="AZ4">
+      <c r="CD4">
         <v>77882.42</v>
       </c>
-      <c r="BA4">
+      <c r="CE4">
         <v>77882.42</v>
       </c>
-      <c r="BB4">
+      <c r="CF4">
         <v>77882.42</v>
       </c>
-      <c r="BC4">
+      <c r="CG4">
         <v>77673.66999999998</v>
       </c>
-      <c r="BD4">
+      <c r="CH4">
         <v>77750.41999999998</v>
       </c>
-      <c r="BE4">
+      <c r="CI4">
         <v>77847.68000000001</v>
       </c>
-      <c r="BF4">
+      <c r="CJ4">
         <v>77826.10000000001</v>
       </c>
-      <c r="BG4">
+      <c r="CK4">
         <v>77826.10000000001</v>
       </c>
-      <c r="BH4">
+      <c r="CL4">
         <v>77826.10000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:90">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5">
+        <v>111</v>
+      </c>
+      <c r="I5">
+        <v>80626.64</v>
+      </c>
+      <c r="J5">
+        <v>81635.53999999999</v>
+      </c>
+      <c r="K5">
+        <v>81595.74000000001</v>
+      </c>
+      <c r="L5">
+        <v>81595.74000000001</v>
+      </c>
+      <c r="M5">
+        <v>81595.74000000001</v>
+      </c>
+      <c r="N5">
+        <v>81600.41999999998</v>
+      </c>
+      <c r="O5">
+        <v>93085.25999999998</v>
+      </c>
+      <c r="P5">
+        <v>93299.86000000002</v>
+      </c>
+      <c r="Q5">
+        <v>92949.87</v>
+      </c>
+      <c r="R5">
+        <v>92823.17</v>
+      </c>
+      <c r="S5">
+        <v>92823.17</v>
+      </c>
+      <c r="T5">
+        <v>92823.17</v>
+      </c>
+      <c r="U5">
+        <v>92775.73999999999</v>
+      </c>
+      <c r="V5">
+        <v>92629.39</v>
+      </c>
+      <c r="W5">
+        <v>92504.42</v>
+      </c>
+      <c r="X5">
+        <v>92437.88</v>
+      </c>
+      <c r="Y5">
+        <v>92563.95000000001</v>
+      </c>
+      <c r="Z5">
+        <v>92563.95000000001</v>
+      </c>
+      <c r="AA5">
+        <v>92563.95000000001</v>
+      </c>
+      <c r="AB5">
+        <v>92700.74999999999</v>
+      </c>
+      <c r="AC5">
+        <v>92711.25999999999</v>
+      </c>
+      <c r="AD5">
+        <v>92774.35000000001</v>
+      </c>
+      <c r="AE5">
+        <v>92774.35000000001</v>
+      </c>
+      <c r="AF5">
+        <v>92797.55000000002</v>
+      </c>
+      <c r="AG5">
+        <v>92797.55000000002</v>
+      </c>
+      <c r="AH5">
+        <v>92797.55000000002</v>
+      </c>
+      <c r="AI5">
         <v>92721.89000000003</v>
       </c>
-      <c r="F5">
+      <c r="AJ5">
         <v>92795.23999999999</v>
       </c>
-      <c r="G5">
+      <c r="AK5">
         <v>93025.85000000001</v>
       </c>
-      <c r="H5">
+      <c r="AL5">
         <v>92994.07999999999</v>
       </c>
-      <c r="I5">
+      <c r="AM5">
         <v>92942.08</v>
       </c>
-      <c r="J5">
+      <c r="AN5">
         <v>92942.08</v>
       </c>
-      <c r="K5">
+      <c r="AO5">
         <v>92942.08</v>
       </c>
-      <c r="L5">
+      <c r="AP5">
         <v>92947.78999999999</v>
       </c>
-      <c r="M5">
+      <c r="AQ5">
         <v>93030.28000000001</v>
       </c>
-      <c r="N5">
+      <c r="AR5">
         <v>93120.95999999999</v>
       </c>
-      <c r="O5">
+      <c r="AS5">
         <v>93239.88999999998</v>
       </c>
-      <c r="P5">
+      <c r="AT5">
         <v>93071.71000000001</v>
       </c>
-      <c r="Q5">
+      <c r="AU5">
         <v>93071.71000000001</v>
       </c>
-      <c r="R5">
+      <c r="AV5">
         <v>93071.71000000001</v>
       </c>
-      <c r="S5">
+      <c r="AW5">
         <v>93142.78999999999</v>
       </c>
-      <c r="T5">
+      <c r="AX5">
         <v>93221.59</v>
       </c>
-      <c r="U5">
+      <c r="AY5">
         <v>93070.01000000001</v>
       </c>
-      <c r="V5">
+      <c r="AZ5">
         <v>93199.77</v>
       </c>
-      <c r="W5">
+      <c r="BA5">
         <v>93360.72</v>
       </c>
-      <c r="X5">
+      <c r="BB5">
         <v>93360.72</v>
       </c>
-      <c r="Y5">
+      <c r="BC5">
         <v>93360.72</v>
       </c>
-      <c r="Z5">
+      <c r="BD5">
         <v>93430.28999999999</v>
       </c>
-      <c r="AA5">
+      <c r="BE5">
         <v>93438.00999999999</v>
       </c>
-      <c r="AB5">
+      <c r="BF5">
         <v>93467.87000000001</v>
       </c>
-      <c r="AC5">
+      <c r="BG5">
         <v>93467.87000000001</v>
       </c>
-      <c r="AD5">
+      <c r="BH5">
         <v>93501.3</v>
       </c>
-      <c r="AE5">
+      <c r="BI5">
         <v>93501.3</v>
       </c>
-      <c r="AF5">
+      <c r="BJ5">
         <v>93501.3</v>
       </c>
-      <c r="AG5">
+      <c r="BK5">
         <v>93593.78</v>
       </c>
-      <c r="AH5">
+      <c r="BL5">
         <v>93586.84999999999</v>
       </c>
-      <c r="AI5">
+      <c r="BM5">
         <v>93593.06</v>
       </c>
-      <c r="AJ5">
+      <c r="BN5">
         <v>93593.06</v>
       </c>
-      <c r="AK5">
+      <c r="BO5">
         <v>93541.87000000001</v>
       </c>
-      <c r="AL5">
+      <c r="BP5">
         <v>93541.87000000001</v>
       </c>
-      <c r="AM5">
+      <c r="BQ5">
         <v>93541.87000000001</v>
       </c>
-      <c r="AN5">
+      <c r="BR5">
         <v>93643.89000000001</v>
       </c>
-      <c r="AO5">
+      <c r="BS5">
         <v>93912.21000000001</v>
       </c>
-      <c r="AP5">
+      <c r="BT5">
         <v>94023.64</v>
       </c>
-      <c r="AQ5">
+      <c r="BU5">
         <v>94004.64999999999</v>
       </c>
-      <c r="AR5">
+      <c r="BV5">
         <v>94120.61</v>
       </c>
-      <c r="AS5">
+      <c r="BW5">
         <v>94120.61</v>
       </c>
-      <c r="AT5">
+      <c r="BX5">
         <v>94120.61</v>
       </c>
-      <c r="AU5">
+      <c r="BY5">
         <v>94145.16999999998</v>
       </c>
-      <c r="AV5">
+      <c r="BZ5">
         <v>94241.14</v>
       </c>
-      <c r="AW5">
+      <c r="CA5">
         <v>94281.77</v>
       </c>
-      <c r="AX5">
+      <c r="CB5">
         <v>94351.26000000001</v>
       </c>
-      <c r="AY5">
+      <c r="CC5">
         <v>94430.20000000001</v>
       </c>
-      <c r="AZ5">
+      <c r="CD5">
         <v>94430.20000000001</v>
       </c>
-      <c r="BA5">
+      <c r="CE5">
         <v>94430.20000000001</v>
       </c>
-      <c r="BB5">
+      <c r="CF5">
         <v>94430.20000000001</v>
       </c>
-      <c r="BC5">
+      <c r="CG5">
         <v>94084.50999999999</v>
       </c>
-      <c r="BD5">
+      <c r="CH5">
         <v>94238.80000000002</v>
       </c>
-      <c r="BE5">
+      <c r="CI5">
         <v>94400.7</v>
       </c>
-      <c r="BF5">
+      <c r="CJ5">
         <v>94378.54000000001</v>
       </c>
-      <c r="BG5">
+      <c r="CK5">
         <v>94378.54000000001</v>
       </c>
-      <c r="BH5">
+      <c r="CL5">
         <v>94378.54000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:90">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="E6">
+        <v>108489.75</v>
+      </c>
+      <c r="F6">
+        <v>108489.75</v>
+      </c>
+      <c r="G6">
+        <v>108498.99</v>
+      </c>
+      <c r="H6">
+        <v>108178.12</v>
+      </c>
+      <c r="I6">
+        <v>108323.17</v>
+      </c>
+      <c r="J6">
+        <v>108136.87</v>
+      </c>
+      <c r="K6">
+        <v>108245.19</v>
+      </c>
+      <c r="L6">
+        <v>108245.19</v>
+      </c>
+      <c r="M6">
+        <v>108245.19</v>
+      </c>
+      <c r="N6">
+        <v>108603.3</v>
+      </c>
+      <c r="O6">
+        <v>108722.62</v>
+      </c>
+      <c r="P6">
+        <v>108815.57</v>
+      </c>
+      <c r="Q6">
+        <v>108454.3</v>
+      </c>
+      <c r="R6">
+        <v>108356.71</v>
+      </c>
+      <c r="S6">
+        <v>108356.71</v>
+      </c>
+      <c r="T6">
+        <v>108356.71</v>
+      </c>
+      <c r="U6">
+        <v>108020.13</v>
+      </c>
+      <c r="V6">
+        <v>107851.27</v>
+      </c>
+      <c r="W6">
+        <v>107733.66</v>
+      </c>
+      <c r="X6">
+        <v>107185.21</v>
+      </c>
+      <c r="Y6">
+        <v>107877.71</v>
+      </c>
+      <c r="Z6">
+        <v>107877.71</v>
+      </c>
+      <c r="AA6">
+        <v>107877.71</v>
+      </c>
+      <c r="AB6">
+        <v>108307.12</v>
+      </c>
+      <c r="AC6">
+        <v>108870</v>
+      </c>
+      <c r="AD6">
+        <v>109244.08</v>
+      </c>
+      <c r="AE6">
+        <v>109244.08</v>
+      </c>
+      <c r="AF6">
+        <v>109499.98</v>
+      </c>
+      <c r="AG6">
+        <v>109499.98</v>
+      </c>
+      <c r="AH6">
+        <v>109499.98</v>
+      </c>
+      <c r="AI6">
         <v>109033.48</v>
       </c>
-      <c r="F6">
+      <c r="AJ6">
         <v>109034.93</v>
       </c>
-      <c r="G6">
+      <c r="AK6">
         <v>109368.06</v>
       </c>
-      <c r="H6">
+      <c r="AL6">
         <v>109419.53</v>
       </c>
-      <c r="I6">
+      <c r="AM6">
         <v>109608.36</v>
       </c>
-      <c r="J6">
+      <c r="AN6">
         <v>109608.36</v>
       </c>
-      <c r="K6">
+      <c r="AO6">
         <v>109608.36</v>
       </c>
-      <c r="L6">
+      <c r="AP6">
         <v>109385.07</v>
       </c>
-      <c r="M6">
+      <c r="AQ6">
         <v>109322.91</v>
       </c>
-      <c r="N6">
+      <c r="AR6">
         <v>109880.67</v>
       </c>
-      <c r="O6">
+      <c r="AS6">
         <v>110190.55</v>
       </c>
-      <c r="P6">
+      <c r="AT6">
         <v>109728.11</v>
       </c>
-      <c r="Q6">
+      <c r="AU6">
         <v>109728.11</v>
       </c>
-      <c r="R6">
+      <c r="AV6">
         <v>109728.11</v>
       </c>
-      <c r="S6">
+      <c r="AW6">
         <v>109726.35</v>
       </c>
-      <c r="T6">
+      <c r="AX6">
         <v>109431.91</v>
       </c>
-      <c r="U6">
+      <c r="AY6">
         <v>109174.98</v>
       </c>
-      <c r="V6">
+      <c r="AZ6">
         <v>109381.82</v>
       </c>
-      <c r="W6">
+      <c r="BA6">
         <v>109423.14</v>
       </c>
-      <c r="X6">
+      <c r="BB6">
         <v>109423.14</v>
       </c>
-      <c r="Y6">
+      <c r="BC6">
         <v>109423.14</v>
       </c>
-      <c r="Z6">
+      <c r="BD6">
         <v>109667.71</v>
       </c>
-      <c r="AA6">
+      <c r="BE6">
         <v>109781.08</v>
       </c>
-      <c r="AB6">
+      <c r="BF6">
         <v>110113.62</v>
       </c>
-      <c r="AC6">
+      <c r="BG6">
         <v>110113.62</v>
       </c>
-      <c r="AD6">
+      <c r="BH6">
         <v>110223.73</v>
       </c>
-      <c r="AE6">
+      <c r="BI6">
         <v>110223.73</v>
       </c>
-      <c r="AF6">
+      <c r="BJ6">
         <v>110223.73</v>
       </c>
-      <c r="AG6">
+      <c r="BK6">
         <v>109970.72</v>
       </c>
-      <c r="AH6">
+      <c r="BL6">
         <v>109940.54</v>
       </c>
-      <c r="AI6">
+      <c r="BM6">
         <v>109596.09</v>
       </c>
-      <c r="AJ6">
+      <c r="BN6">
         <v>109596.09</v>
       </c>
-      <c r="AK6">
+      <c r="BO6">
         <v>109966.53</v>
       </c>
-      <c r="AL6">
+      <c r="BP6">
         <v>109966.53</v>
       </c>
-      <c r="AM6">
+      <c r="BQ6">
         <v>109966.53</v>
       </c>
-      <c r="AN6">
+      <c r="BR6">
         <v>110477.8</v>
       </c>
-      <c r="AO6">
+      <c r="BS6">
         <v>110900.24</v>
       </c>
-      <c r="AP6">
+      <c r="BT6">
         <v>110555.46</v>
       </c>
-      <c r="AQ6">
+      <c r="BU6">
         <v>110786.69</v>
       </c>
-      <c r="AR6">
+      <c r="BV6">
         <v>111090.88</v>
       </c>
-      <c r="AS6">
+      <c r="BW6">
         <v>111090.88</v>
       </c>
-      <c r="AT6">
+      <c r="BX6">
         <v>111090.88</v>
       </c>
-      <c r="AU6">
+      <c r="BY6">
         <v>111311.37</v>
       </c>
-      <c r="AV6">
+      <c r="BZ6">
         <v>111235.28</v>
       </c>
-      <c r="AW6">
+      <c r="CA6">
         <v>111411.44</v>
       </c>
-      <c r="AX6">
+      <c r="CB6">
         <v>111570.01</v>
       </c>
-      <c r="AY6">
+      <c r="CC6">
         <v>111546.35</v>
       </c>
-      <c r="AZ6">
+      <c r="CD6">
         <v>111546.35</v>
       </c>
-      <c r="BA6">
+      <c r="CE6">
         <v>111546.35</v>
       </c>
-      <c r="BB6">
+      <c r="CF6">
         <v>111546.35</v>
       </c>
-      <c r="BC6">
+      <c r="CG6">
         <v>111028.93</v>
       </c>
-      <c r="BD6">
+      <c r="CH6">
         <v>111724.18</v>
       </c>
-      <c r="BE6">
+      <c r="CI6">
         <v>111979.8</v>
       </c>
-      <c r="BF6">
+      <c r="CJ6">
         <v>111995.54</v>
       </c>
-      <c r="BG6">
+      <c r="CK6">
         <v>111995.54</v>
       </c>
-      <c r="BH6">
+      <c r="CL6">
         <v>111995.54</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:90">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E7">
+        <v>1302442.59</v>
+      </c>
+      <c r="F7">
+        <v>1302442.59</v>
+      </c>
+      <c r="G7">
+        <v>1301049.04</v>
+      </c>
+      <c r="H7">
+        <v>1300428.69</v>
+      </c>
+      <c r="I7">
+        <v>1300675.57</v>
+      </c>
+      <c r="J7">
+        <v>1301315.85</v>
+      </c>
+      <c r="K7">
+        <v>1302731.7</v>
+      </c>
+      <c r="L7">
+        <v>1302731.7</v>
+      </c>
+      <c r="M7">
+        <v>1302731.7</v>
+      </c>
+      <c r="N7">
+        <v>1303887.22</v>
+      </c>
+      <c r="O7">
+        <v>1304619.4</v>
+      </c>
+      <c r="P7">
+        <v>1305073.35</v>
+      </c>
+      <c r="Q7">
+        <v>1304141.27</v>
+      </c>
+      <c r="R7">
+        <v>1303517.19</v>
+      </c>
+      <c r="S7">
+        <v>1303517.19</v>
+      </c>
+      <c r="T7">
+        <v>1303517.19</v>
+      </c>
+      <c r="U7">
+        <v>1302315.94</v>
+      </c>
+      <c r="V7">
+        <v>1301968.06</v>
+      </c>
+      <c r="W7">
+        <v>1301982.87</v>
+      </c>
+      <c r="X7">
+        <v>1300715.52</v>
+      </c>
+      <c r="Y7">
+        <v>1302754.8</v>
+      </c>
+      <c r="Z7">
+        <v>1302754.8</v>
+      </c>
+      <c r="AA7">
+        <v>1302754.8</v>
+      </c>
+      <c r="AB7">
+        <v>1304613.16</v>
+      </c>
+      <c r="AC7">
+        <v>1306229.66</v>
+      </c>
+      <c r="AD7">
+        <v>1307777.23</v>
+      </c>
+      <c r="AE7">
+        <v>1307777.23</v>
+      </c>
+      <c r="AF7">
+        <v>1308751.7</v>
+      </c>
+      <c r="AG7">
+        <v>1308751.7</v>
+      </c>
+      <c r="AH7">
+        <v>1308751.7</v>
+      </c>
+      <c r="AI7">
         <v>1305850.93</v>
       </c>
-      <c r="F7">
+      <c r="AJ7">
         <v>1306101.28</v>
       </c>
-      <c r="G7">
+      <c r="AK7">
         <v>1307095.74</v>
       </c>
-      <c r="H7">
+      <c r="AL7">
         <v>1307457.57</v>
       </c>
-      <c r="I7">
+      <c r="AM7">
         <v>1308733.9</v>
       </c>
-      <c r="J7">
+      <c r="AN7">
         <v>1308733.9</v>
       </c>
-      <c r="K7">
+      <c r="AO7">
         <v>1308733.9</v>
       </c>
-      <c r="L7">
+      <c r="AP7">
         <v>1308279.94</v>
       </c>
-      <c r="M7">
+      <c r="AQ7">
         <v>1308136.93</v>
       </c>
-      <c r="N7">
+      <c r="AR7">
         <v>1309990.87</v>
       </c>
-      <c r="O7">
+      <c r="AS7">
         <v>1311011.87</v>
       </c>
-      <c r="P7">
+      <c r="AT7">
         <v>1308768.53</v>
       </c>
-      <c r="Q7">
+      <c r="AU7">
         <v>1308768.53</v>
       </c>
-      <c r="R7">
+      <c r="AV7">
         <v>1308768.53</v>
       </c>
-      <c r="S7">
+      <c r="AW7">
         <v>1309278.2</v>
       </c>
-      <c r="T7">
+      <c r="AX7">
         <v>1309069.78</v>
       </c>
-      <c r="U7">
+      <c r="AY7">
         <v>1308329.03</v>
       </c>
-      <c r="V7">
+      <c r="AZ7">
         <v>1308276.98</v>
       </c>
-      <c r="W7">
+      <c r="BA7">
         <v>1307812.04</v>
       </c>
-      <c r="X7">
+      <c r="BB7">
         <v>1307812.04</v>
       </c>
-      <c r="Y7">
+      <c r="BC7">
         <v>1307812.04</v>
       </c>
-      <c r="Z7">
+      <c r="BD7">
         <v>1308754.86</v>
       </c>
-      <c r="AA7">
+      <c r="BE7">
         <v>1310015.27</v>
       </c>
-      <c r="AB7">
+      <c r="BF7">
         <v>1311910.29</v>
       </c>
-      <c r="AC7">
+      <c r="BG7">
         <v>1311910.29</v>
       </c>
-      <c r="AD7">
+      <c r="BH7">
         <v>1312606.64</v>
       </c>
-      <c r="AE7">
+      <c r="BI7">
         <v>1312606.64</v>
       </c>
-      <c r="AF7">
+      <c r="BJ7">
         <v>1312606.64</v>
       </c>
-      <c r="AG7">
+      <c r="BK7">
         <v>1311577.87</v>
       </c>
-      <c r="AH7">
+      <c r="BL7">
         <v>1311748.61</v>
       </c>
-      <c r="AI7">
+      <c r="BM7">
         <v>1310656.63</v>
       </c>
-      <c r="AJ7">
+      <c r="BN7">
         <v>1310656.63</v>
       </c>
-      <c r="AK7">
+      <c r="BO7">
         <v>1311565.88</v>
       </c>
-      <c r="AL7">
+      <c r="BP7">
         <v>1311565.88</v>
       </c>
-      <c r="AM7">
+      <c r="BQ7">
         <v>1311565.88</v>
       </c>
-      <c r="AN7">
+      <c r="BR7">
         <v>1713740.41</v>
       </c>
-      <c r="AO7">
+      <c r="BS7">
         <v>2194867.75</v>
       </c>
-      <c r="AP7">
+      <c r="BT7">
         <v>2193439.21</v>
       </c>
-      <c r="AQ7">
+      <c r="BU7">
         <v>2193510.33</v>
       </c>
-      <c r="AR7">
+      <c r="BV7">
         <v>2196305.04</v>
       </c>
-      <c r="AS7">
+      <c r="BW7">
         <v>2196305.04</v>
       </c>
-      <c r="AT7">
+      <c r="BX7">
         <v>2196305.04</v>
       </c>
-      <c r="AU7">
+      <c r="BY7">
         <v>2197605.82</v>
       </c>
-      <c r="AV7">
+      <c r="BZ7">
         <v>2197738.73</v>
       </c>
-      <c r="AW7">
+      <c r="CA7">
         <v>2198515.19</v>
       </c>
-      <c r="AX7">
+      <c r="CB7">
         <v>2198373.08</v>
       </c>
-      <c r="AY7">
+      <c r="CC7">
         <v>2197813.2</v>
       </c>
-      <c r="AZ7">
+      <c r="CD7">
         <v>2197813.2</v>
       </c>
-      <c r="BA7">
+      <c r="CE7">
         <v>2197813.2</v>
       </c>
-      <c r="BB7">
+      <c r="CF7">
         <v>2197813.2</v>
       </c>
-      <c r="BC7">
+      <c r="CG7">
         <v>2194579.02</v>
       </c>
-      <c r="BD7">
+      <c r="CH7">
         <v>2199469.99</v>
       </c>
-      <c r="BE7">
+      <c r="CI7">
         <v>2201683.74</v>
       </c>
-      <c r="BF7">
+      <c r="CJ7">
         <v>2203280.56</v>
       </c>
-      <c r="BG7">
+      <c r="CK7">
         <v>2203280.56</v>
       </c>
-      <c r="BH7">
+      <c r="CL7">
         <v>2203280.56</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:90">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E8">
+        <v>69646.18999999999</v>
+      </c>
+      <c r="F8">
+        <v>69646.18999999999</v>
+      </c>
+      <c r="G8">
+        <v>59544.25</v>
+      </c>
+      <c r="H8">
+        <v>69644.38</v>
+      </c>
+      <c r="I8">
+        <v>69634.62</v>
+      </c>
+      <c r="J8">
+        <v>69663.01000000001</v>
+      </c>
+      <c r="K8">
+        <v>69716.32000000001</v>
+      </c>
+      <c r="L8">
+        <v>69716.32000000001</v>
+      </c>
+      <c r="M8">
+        <v>69716.32000000001</v>
+      </c>
+      <c r="N8">
+        <v>70011.32999999999</v>
+      </c>
+      <c r="O8">
+        <v>70020.63</v>
+      </c>
+      <c r="P8">
+        <v>70112.42</v>
+      </c>
+      <c r="Q8">
+        <v>70093.86</v>
+      </c>
+      <c r="R8">
+        <v>70047.16</v>
+      </c>
+      <c r="S8">
+        <v>70047.16</v>
+      </c>
+      <c r="T8">
+        <v>70047.16</v>
+      </c>
+      <c r="U8">
+        <v>70050.39</v>
+      </c>
+      <c r="V8">
+        <v>70065.79000000001</v>
+      </c>
+      <c r="W8">
+        <v>70013.26999999999</v>
+      </c>
+      <c r="X8">
+        <v>70034.36</v>
+      </c>
+      <c r="Y8">
+        <v>70047.10000000001</v>
+      </c>
+      <c r="Z8">
+        <v>70047.10000000001</v>
+      </c>
+      <c r="AA8">
+        <v>70047.10000000001</v>
+      </c>
+      <c r="AB8">
+        <v>70073.79999999999</v>
+      </c>
+      <c r="AC8">
+        <v>70005.88</v>
+      </c>
+      <c r="AD8">
+        <v>70063.2</v>
+      </c>
+      <c r="AE8">
+        <v>70063.2</v>
+      </c>
+      <c r="AF8">
+        <v>70078.72</v>
+      </c>
+      <c r="AG8">
+        <v>70078.72</v>
+      </c>
+      <c r="AH8">
+        <v>70078.72</v>
+      </c>
+      <c r="AI8">
         <v>69869.81</v>
       </c>
-      <c r="F8">
+      <c r="AJ8">
         <v>69915.48</v>
       </c>
-      <c r="G8">
+      <c r="AK8">
         <v>69957.91</v>
       </c>
-      <c r="H8">
+      <c r="AL8">
         <v>69945.29000000001</v>
       </c>
-      <c r="I8">
+      <c r="AM8">
         <v>70079.55</v>
       </c>
-      <c r="J8">
+      <c r="AN8">
         <v>70079.55</v>
       </c>
-      <c r="K8">
+      <c r="AO8">
         <v>70079.55</v>
       </c>
-      <c r="L8">
+      <c r="AP8">
         <v>70059.41</v>
       </c>
-      <c r="M8">
+      <c r="AQ8">
         <v>70020.14999999999</v>
       </c>
-      <c r="N8">
+      <c r="AR8">
         <v>69999.95</v>
       </c>
-      <c r="O8">
+      <c r="AS8">
         <v>70051.92</v>
       </c>
-      <c r="P8">
+      <c r="AT8">
         <v>69965.42</v>
       </c>
-      <c r="Q8">
+      <c r="AU8">
         <v>69965.42</v>
       </c>
-      <c r="R8">
+      <c r="AV8">
         <v>69965.42</v>
       </c>
-      <c r="S8">
+      <c r="AW8">
         <v>69919.45</v>
       </c>
-      <c r="T8">
+      <c r="AX8">
         <v>69942.88</v>
       </c>
-      <c r="U8">
+      <c r="AY8">
         <v>69885.56</v>
       </c>
-      <c r="V8">
+      <c r="AZ8">
         <v>69954.35000000001</v>
       </c>
-      <c r="W8">
+      <c r="BA8">
         <v>69845.2</v>
       </c>
-      <c r="X8">
+      <c r="BB8">
         <v>69845.2</v>
       </c>
-      <c r="Y8">
+      <c r="BC8">
         <v>69845.2</v>
       </c>
-      <c r="Z8">
+      <c r="BD8">
         <v>69838.27</v>
       </c>
-      <c r="AA8">
+      <c r="BE8">
         <v>69852.61</v>
       </c>
-      <c r="AB8">
+      <c r="BF8">
         <v>69957.74000000001</v>
       </c>
-      <c r="AC8">
+      <c r="BG8">
         <v>69957.74000000001</v>
       </c>
-      <c r="AD8">
+      <c r="BH8">
         <v>70011.08</v>
       </c>
-      <c r="AE8">
+      <c r="BI8">
         <v>70011.08</v>
       </c>
-      <c r="AF8">
+      <c r="BJ8">
         <v>70011.08</v>
       </c>
-      <c r="AG8">
+      <c r="BK8">
         <v>69977.83</v>
       </c>
-      <c r="AH8">
+      <c r="BL8">
         <v>70004.45</v>
       </c>
-      <c r="AI8">
+      <c r="BM8">
         <v>70027.74000000001</v>
       </c>
-      <c r="AJ8">
+      <c r="BN8">
         <v>70027.74000000001</v>
       </c>
-      <c r="AK8">
+      <c r="BO8">
         <v>70029.3</v>
       </c>
-      <c r="AL8">
+      <c r="BP8">
         <v>70029.3</v>
       </c>
-      <c r="AM8">
+      <c r="BQ8">
         <v>70029.3</v>
       </c>
-      <c r="AN8">
+      <c r="BR8">
         <v>69993.3</v>
       </c>
-      <c r="AO8">
+      <c r="BS8">
         <v>70002.62</v>
       </c>
-      <c r="AP8">
+      <c r="BT8">
         <v>70003.84</v>
       </c>
-      <c r="AQ8">
+      <c r="BU8">
         <v>70010.28</v>
       </c>
-      <c r="AR8">
+      <c r="BV8">
         <v>70039.17</v>
       </c>
-      <c r="AS8">
+      <c r="BW8">
         <v>70039.17</v>
       </c>
-      <c r="AT8">
+      <c r="BX8">
         <v>70039.17</v>
       </c>
-      <c r="AU8">
+      <c r="BY8">
         <v>70035.99000000001</v>
       </c>
-      <c r="AV8">
+      <c r="BZ8">
         <v>70038.79000000001</v>
       </c>
-      <c r="AW8">
+      <c r="CA8">
         <v>70036.55</v>
       </c>
-      <c r="AX8">
+      <c r="CB8">
         <v>70071.07000000001</v>
       </c>
-      <c r="AY8">
+      <c r="CC8">
         <v>70418.14</v>
       </c>
-      <c r="AZ8">
+      <c r="CD8">
         <v>70418.14</v>
       </c>
-      <c r="BA8">
+      <c r="CE8">
         <v>70418.14</v>
       </c>
-      <c r="BB8">
+      <c r="CF8">
         <v>70418.14</v>
       </c>
-      <c r="BC8">
+      <c r="CG8">
         <v>70368.54000000001</v>
       </c>
-      <c r="BD8">
+      <c r="CH8">
         <v>70411.54000000001</v>
       </c>
-      <c r="BE8">
+      <c r="CI8">
         <v>70451.97</v>
       </c>
-      <c r="BF8">
+      <c r="CJ8">
         <v>70462.13</v>
       </c>
-      <c r="BG8">
+      <c r="CK8">
         <v>70462.13</v>
       </c>
-      <c r="BH8">
+      <c r="CL8">
         <v>70462.13</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:90">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E9">
+        <v>115921.55</v>
+      </c>
+      <c r="F9">
+        <v>115921.55</v>
+      </c>
+      <c r="G9">
+        <v>115888.55</v>
+      </c>
+      <c r="H9">
+        <v>115841.24</v>
+      </c>
+      <c r="I9">
+        <v>115584.92</v>
+      </c>
+      <c r="J9">
+        <v>115878.84</v>
+      </c>
+      <c r="K9">
+        <v>115784.66</v>
+      </c>
+      <c r="L9">
+        <v>115784.66</v>
+      </c>
+      <c r="M9">
+        <v>115784.66</v>
+      </c>
+      <c r="N9">
+        <v>115818.68</v>
+      </c>
+      <c r="O9">
+        <v>116024.18</v>
+      </c>
+      <c r="P9">
+        <v>116079.66</v>
+      </c>
+      <c r="Q9">
+        <v>115922.47</v>
+      </c>
+      <c r="R9">
+        <v>115656.52</v>
+      </c>
+      <c r="S9">
+        <v>115656.52</v>
+      </c>
+      <c r="T9">
+        <v>115656.52</v>
+      </c>
+      <c r="U9">
+        <v>115716.9</v>
+      </c>
+      <c r="V9">
+        <v>115615.89</v>
+      </c>
+      <c r="W9">
+        <v>115613.25</v>
+      </c>
+      <c r="X9">
+        <v>115821.04</v>
+      </c>
+      <c r="Y9">
+        <v>116133.72</v>
+      </c>
+      <c r="Z9">
+        <v>116133.72</v>
+      </c>
+      <c r="AA9">
+        <v>116133.72</v>
+      </c>
+      <c r="AB9">
+        <v>116285.14</v>
+      </c>
+      <c r="AC9">
+        <v>116880.2</v>
+      </c>
+      <c r="AD9">
+        <v>116960.07</v>
+      </c>
+      <c r="AE9">
+        <v>116960.07</v>
+      </c>
+      <c r="AF9">
+        <v>116940.82</v>
+      </c>
+      <c r="AG9">
+        <v>116940.82</v>
+      </c>
+      <c r="AH9">
+        <v>116940.82</v>
+      </c>
+      <c r="AI9">
         <v>116925.38</v>
       </c>
-      <c r="F9">
+      <c r="AJ9">
         <v>116921.6</v>
       </c>
-      <c r="G9">
+      <c r="AK9">
         <v>116939.57</v>
       </c>
-      <c r="H9">
+      <c r="AL9">
         <v>116941.04</v>
       </c>
-      <c r="I9">
+      <c r="AM9">
         <v>116841.15</v>
       </c>
-      <c r="J9">
+      <c r="AN9">
         <v>116841.15</v>
       </c>
-      <c r="K9">
+      <c r="AO9">
         <v>116841.15</v>
       </c>
-      <c r="L9">
+      <c r="AP9">
         <v>116784.5</v>
       </c>
-      <c r="M9">
+      <c r="AQ9">
         <v>116725.87</v>
       </c>
-      <c r="N9">
+      <c r="AR9">
         <v>116782.21</v>
       </c>
-      <c r="O9">
+      <c r="AS9">
         <v>116951.78</v>
       </c>
-      <c r="P9">
+      <c r="AT9">
         <v>116770.09</v>
       </c>
-      <c r="Q9">
+      <c r="AU9">
         <v>116770.09</v>
       </c>
-      <c r="R9">
+      <c r="AV9">
         <v>116770.09</v>
       </c>
-      <c r="S9">
+      <c r="AW9">
         <v>116790.86</v>
       </c>
-      <c r="T9">
+      <c r="AX9">
         <v>116784.63</v>
       </c>
-      <c r="U9">
+      <c r="AY9">
         <v>116752.97</v>
       </c>
-      <c r="V9">
+      <c r="AZ9">
         <v>116813.75</v>
       </c>
-      <c r="W9">
+      <c r="BA9">
         <v>116765.86</v>
       </c>
-      <c r="X9">
+      <c r="BB9">
         <v>116765.86</v>
       </c>
-      <c r="Y9">
+      <c r="BC9">
         <v>116765.86</v>
       </c>
-      <c r="Z9">
+      <c r="BD9">
         <v>116811.74</v>
       </c>
-      <c r="AA9">
+      <c r="BE9">
         <v>116857.57</v>
       </c>
-      <c r="AB9">
+      <c r="BF9">
         <v>116959.56</v>
       </c>
-      <c r="AC9">
+      <c r="BG9">
         <v>116959.56</v>
       </c>
-      <c r="AD9">
+      <c r="BH9">
         <v>117018.35</v>
       </c>
-      <c r="AE9">
+      <c r="BI9">
         <v>117018.35</v>
       </c>
-      <c r="AF9">
+      <c r="BJ9">
         <v>117018.35</v>
       </c>
-      <c r="AG9">
+      <c r="BK9">
         <v>116986.13</v>
       </c>
-      <c r="AH9">
+      <c r="BL9">
         <v>116994.34</v>
       </c>
-      <c r="AI9">
+      <c r="BM9">
         <v>116928.43</v>
       </c>
-      <c r="AJ9">
+      <c r="BN9">
         <v>116928.43</v>
       </c>
-      <c r="AK9">
+      <c r="BO9">
         <v>116965.21</v>
       </c>
-      <c r="AL9">
+      <c r="BP9">
         <v>116965.21</v>
       </c>
-      <c r="AM9">
+      <c r="BQ9">
         <v>116965.21</v>
       </c>
-      <c r="AN9">
+      <c r="BR9">
         <v>117034.94</v>
       </c>
-      <c r="AO9">
+      <c r="BS9">
         <v>117319.11</v>
       </c>
-      <c r="AP9">
+      <c r="BT9">
         <v>117283.9</v>
       </c>
-      <c r="AQ9">
+      <c r="BU9">
         <v>117339.8</v>
       </c>
-      <c r="AR9">
+      <c r="BV9">
         <v>117419.84</v>
       </c>
-      <c r="AS9">
+      <c r="BW9">
         <v>117419.84</v>
       </c>
-      <c r="AT9">
+      <c r="BX9">
         <v>117419.84</v>
       </c>
-      <c r="AU9">
+      <c r="BY9">
         <v>117502.61</v>
       </c>
-      <c r="AV9">
+      <c r="BZ9">
         <v>117521.27</v>
       </c>
-      <c r="AW9">
+      <c r="CA9">
         <v>117573.59</v>
       </c>
-      <c r="AX9">
+      <c r="CB9">
         <v>117590.61</v>
       </c>
-      <c r="AY9">
+      <c r="CC9">
         <v>117550.24</v>
       </c>
-      <c r="AZ9">
+      <c r="CD9">
         <v>117550.24</v>
       </c>
-      <c r="BA9">
+      <c r="CE9">
         <v>117550.24</v>
       </c>
-      <c r="BB9">
+      <c r="CF9">
         <v>117550.24</v>
       </c>
-      <c r="BC9">
+      <c r="CG9">
         <v>117455.45</v>
       </c>
-      <c r="BD9">
+      <c r="CH9">
         <v>117608.13</v>
       </c>
-      <c r="BE9">
+      <c r="CI9">
         <v>117707.27</v>
       </c>
-      <c r="BF9">
+      <c r="CJ9">
         <v>117774.96</v>
       </c>
-      <c r="BG9">
+      <c r="CK9">
         <v>117774.96</v>
       </c>
-      <c r="BH9">
+      <c r="CL9">
         <v>117774.96</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:90">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E10">
+        <v>96320.84</v>
+      </c>
+      <c r="F10">
+        <v>96320.84</v>
+      </c>
+      <c r="G10">
+        <v>86162.81999999998</v>
+      </c>
+      <c r="H10">
+        <v>95805.19999999995</v>
+      </c>
+      <c r="I10">
+        <v>95938.45999999998</v>
+      </c>
+      <c r="J10">
+        <v>95640.36000000002</v>
+      </c>
+      <c r="K10">
+        <v>95756.00000000003</v>
+      </c>
+      <c r="L10">
+        <v>95756.00000000003</v>
+      </c>
+      <c r="M10">
+        <v>95756.00000000003</v>
+      </c>
+      <c r="N10">
+        <v>96158.25999999998</v>
+      </c>
+      <c r="O10">
+        <v>96098.8</v>
+      </c>
+      <c r="P10">
+        <v>96172.25000000003</v>
+      </c>
+      <c r="Q10">
+        <v>95712.76000000001</v>
+      </c>
+      <c r="R10">
+        <v>95566.72000000002</v>
+      </c>
+      <c r="S10">
+        <v>95566.72000000002</v>
+      </c>
+      <c r="T10">
+        <v>95566.72000000002</v>
+      </c>
+      <c r="U10">
+        <v>95254.81</v>
+      </c>
+      <c r="V10">
+        <v>95169.86</v>
+      </c>
+      <c r="W10">
+        <v>95186.85000000003</v>
+      </c>
+      <c r="X10">
+        <v>94766.91000000002</v>
+      </c>
+      <c r="Y10">
+        <v>94942.04000000001</v>
+      </c>
+      <c r="Z10">
+        <v>94942.04000000001</v>
+      </c>
+      <c r="AA10">
+        <v>94942.04000000001</v>
+      </c>
+      <c r="AB10">
+        <v>95154.20000000003</v>
+      </c>
+      <c r="AC10">
+        <v>95492.37000000001</v>
+      </c>
+      <c r="AD10">
+        <v>95647.17000000001</v>
+      </c>
+      <c r="AE10">
+        <v>95647.17000000001</v>
+      </c>
+      <c r="AF10">
+        <v>95714.79000000001</v>
+      </c>
+      <c r="AG10">
+        <v>95714.79000000001</v>
+      </c>
+      <c r="AH10">
+        <v>95714.79000000001</v>
+      </c>
+      <c r="AI10">
         <v>95526.49000000001</v>
       </c>
-      <c r="F10">
+      <c r="AJ10">
         <v>95559.83000000002</v>
       </c>
-      <c r="G10">
+      <c r="AK10">
         <v>95638.14</v>
       </c>
-      <c r="H10">
+      <c r="AL10">
         <v>95683.92</v>
       </c>
-      <c r="I10">
+      <c r="AM10">
         <v>95755.19999999998</v>
       </c>
-      <c r="J10">
+      <c r="AN10">
         <v>95755.19999999998</v>
       </c>
-      <c r="K10">
+      <c r="AO10">
         <v>95755.19999999998</v>
       </c>
-      <c r="L10">
+      <c r="AP10">
         <v>95691.16000000002</v>
       </c>
-      <c r="M10">
+      <c r="AQ10">
         <v>95655.7</v>
       </c>
-      <c r="N10">
+      <c r="AR10">
         <v>95769.82999999999</v>
       </c>
-      <c r="O10">
+      <c r="AS10">
         <v>95819.38</v>
       </c>
-      <c r="P10">
+      <c r="AT10">
         <v>95566.33</v>
       </c>
-      <c r="Q10">
+      <c r="AU10">
         <v>95566.33</v>
       </c>
-      <c r="R10">
+      <c r="AV10">
         <v>95566.33</v>
       </c>
-      <c r="S10">
+      <c r="AW10">
         <v>95555.67999999998</v>
       </c>
-      <c r="T10">
+      <c r="AX10">
         <v>95518.99999999999</v>
       </c>
-      <c r="U10">
+      <c r="AY10">
         <v>95352.39</v>
       </c>
-      <c r="V10">
+      <c r="AZ10">
         <v>95474.62999999999</v>
       </c>
-      <c r="W10">
+      <c r="BA10">
         <v>95572.55999999998</v>
       </c>
-      <c r="X10">
+      <c r="BB10">
         <v>95572.55999999998</v>
       </c>
-      <c r="Y10">
+      <c r="BC10">
         <v>95572.55999999998</v>
       </c>
-      <c r="Z10">
+      <c r="BD10">
         <v>95646.32000000001</v>
       </c>
-      <c r="AA10">
+      <c r="BE10">
         <v>95788.91</v>
       </c>
-      <c r="AB10">
+      <c r="BF10">
         <v>95894.46000000002</v>
       </c>
-      <c r="AC10">
+      <c r="BG10">
         <v>95894.46000000002</v>
       </c>
-      <c r="AD10">
+      <c r="BH10">
         <v>95983.29000000001</v>
       </c>
-      <c r="AE10">
+      <c r="BI10">
         <v>95983.29000000001</v>
       </c>
-      <c r="AF10">
+      <c r="BJ10">
         <v>95983.29000000001</v>
       </c>
-      <c r="AG10">
+      <c r="BK10">
         <v>95822.08999999998</v>
       </c>
-      <c r="AH10">
+      <c r="BL10">
         <v>95835.64999999999</v>
       </c>
-      <c r="AI10">
+      <c r="BM10">
         <v>95744.05000000002</v>
       </c>
-      <c r="AJ10">
+      <c r="BN10">
         <v>95744.05000000002</v>
       </c>
-      <c r="AK10">
+      <c r="BO10">
         <v>95882.28</v>
       </c>
-      <c r="AL10">
+      <c r="BP10">
         <v>95882.28</v>
       </c>
-      <c r="AM10">
+      <c r="BQ10">
         <v>95882.28</v>
       </c>
-      <c r="AN10">
+      <c r="BR10">
         <v>96059.59999999999</v>
       </c>
-      <c r="AO10">
+      <c r="BS10">
         <v>96191.99999999999</v>
       </c>
-      <c r="AP10">
+      <c r="BT10">
         <v>96097.75000000001</v>
       </c>
-      <c r="AQ10">
+      <c r="BU10">
         <v>96123.56</v>
       </c>
-      <c r="AR10">
+      <c r="BV10">
         <v>107238.46</v>
       </c>
-      <c r="AS10">
+      <c r="BW10">
         <v>107238.46</v>
       </c>
-      <c r="AT10">
+      <c r="BX10">
         <v>107238.46</v>
       </c>
-      <c r="AU10">
+      <c r="BY10">
         <v>107333.85</v>
       </c>
-      <c r="AV10">
+      <c r="BZ10">
         <v>107318.63</v>
       </c>
-      <c r="AW10">
+      <c r="CA10">
         <v>96929.40999999999</v>
       </c>
-      <c r="AX10">
+      <c r="CB10">
         <v>96970.69000000002</v>
       </c>
-      <c r="AY10">
+      <c r="CC10">
         <v>97270.83999999998</v>
       </c>
-      <c r="AZ10">
+      <c r="CD10">
         <v>97270.83999999998</v>
       </c>
-      <c r="BA10">
+      <c r="CE10">
         <v>97270.83999999998</v>
       </c>
-      <c r="BB10">
+      <c r="CF10">
         <v>97270.83999999998</v>
       </c>
-      <c r="BC10">
+      <c r="CG10">
         <v>97101.94000000002</v>
       </c>
-      <c r="BD10">
+      <c r="CH10">
         <v>97369.30000000002</v>
       </c>
-      <c r="BE10">
+      <c r="CI10">
         <v>97497.53000000001</v>
       </c>
-      <c r="BF10">
+      <c r="CJ10">
         <v>97575.03</v>
       </c>
-      <c r="BG10">
+      <c r="CK10">
         <v>97575.03</v>
       </c>
-      <c r="BH10">
+      <c r="CL10">
         <v>97575.03</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:90">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11">
+        <v>116</v>
+      </c>
+      <c r="AQ11">
         <v>138873.73</v>
       </c>
-      <c r="N11">
+      <c r="AR11">
         <v>139274.39</v>
       </c>
-      <c r="O11">
+      <c r="AS11">
         <v>139633.22</v>
       </c>
-      <c r="P11">
+      <c r="AT11">
         <v>139671.52</v>
       </c>
-      <c r="Q11">
+      <c r="AU11">
         <v>139671.52</v>
       </c>
-      <c r="R11">
+      <c r="AV11">
         <v>139671.52</v>
       </c>
-      <c r="S11">
+      <c r="AW11">
         <v>139161.67</v>
       </c>
-      <c r="T11">
+      <c r="AX11">
         <v>138355.47</v>
       </c>
-      <c r="U11">
+      <c r="AY11">
         <v>138076.26</v>
       </c>
-      <c r="V11">
+      <c r="AZ11">
         <v>138529.02</v>
       </c>
-      <c r="W11">
+      <c r="BA11">
         <v>138888.47</v>
       </c>
-      <c r="X11">
+      <c r="BB11">
         <v>138888.47</v>
       </c>
-      <c r="Y11">
+      <c r="BC11">
         <v>138888.47</v>
       </c>
-      <c r="Z11">
+      <c r="BD11">
         <v>138460.95</v>
       </c>
-      <c r="AA11">
+      <c r="BE11">
         <v>138577.43</v>
       </c>
-      <c r="AB11">
+      <c r="BF11">
         <v>138935.59</v>
       </c>
-      <c r="AC11">
+      <c r="BG11">
         <v>138935.59</v>
       </c>
-      <c r="AD11">
+      <c r="BH11">
         <v>138998.44</v>
       </c>
-      <c r="AE11">
+      <c r="BI11">
         <v>138998.44</v>
       </c>
-      <c r="AF11">
+      <c r="BJ11">
         <v>138998.44</v>
       </c>
-      <c r="AG11">
+      <c r="BK11">
         <v>139340.41</v>
       </c>
-      <c r="AH11">
+      <c r="BL11">
         <v>139117.35</v>
       </c>
-      <c r="AI11">
+      <c r="BM11">
         <v>138446.86</v>
       </c>
-      <c r="AJ11">
+      <c r="BN11">
         <v>138446.86</v>
       </c>
-      <c r="AK11">
+      <c r="BO11">
         <v>138282.84</v>
       </c>
-      <c r="AL11">
+      <c r="BP11">
         <v>138282.84</v>
       </c>
-      <c r="AM11">
+      <c r="BQ11">
         <v>138282.84</v>
       </c>
-      <c r="AN11">
+      <c r="BR11">
         <v>138868.22</v>
       </c>
-      <c r="AO11">
+      <c r="BS11">
         <v>140331.36</v>
       </c>
-      <c r="AP11">
+      <c r="BT11">
         <v>139811.81</v>
       </c>
-      <c r="AQ11">
+      <c r="BU11">
         <v>140300.45</v>
       </c>
-      <c r="AR11">
+      <c r="BV11">
         <v>141097.44</v>
       </c>
-      <c r="AS11">
+      <c r="BW11">
         <v>141097.44</v>
       </c>
-      <c r="AT11">
+      <c r="BX11">
         <v>141097.44</v>
       </c>
-      <c r="AU11">
+      <c r="BY11">
         <v>142387.88</v>
       </c>
-      <c r="AV11">
+      <c r="BZ11">
         <v>142808.86</v>
       </c>
-      <c r="AW11">
+      <c r="CA11">
         <v>141977.71</v>
       </c>
-      <c r="AX11">
+      <c r="CB11">
         <v>142085.6</v>
       </c>
-      <c r="AY11">
+      <c r="CC11">
         <v>142104.26</v>
       </c>
-      <c r="AZ11">
+      <c r="CD11">
         <v>142104.26</v>
       </c>
-      <c r="BA11">
+      <c r="CE11">
         <v>142104.26</v>
       </c>
-      <c r="BB11">
+      <c r="CF11">
         <v>142104.26</v>
       </c>
-      <c r="BC11">
+      <c r="CG11">
         <v>139784.01</v>
       </c>
-      <c r="BD11">
+      <c r="CH11">
         <v>140127.84</v>
       </c>
-      <c r="BE11">
+      <c r="CI11">
         <v>139991.59</v>
       </c>
-      <c r="BF11">
+      <c r="CJ11">
         <v>140801.88</v>
       </c>
-      <c r="BG11">
+      <c r="CK11">
         <v>140801.88</v>
       </c>
-      <c r="BH11">
+      <c r="CL11">
         <v>140801.88</v>
       </c>
     </row>

--- a/backend/data/PL/excel/evolucao_pl_diaria.xlsx
+++ b/backend/data/PL/excel/evolucao_pl_diaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL11"/>
+  <dimension ref="A1:CN11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,6 +879,16 @@
           <t>2026-01-25</t>
         </is>
       </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1156,6 +1166,12 @@
       </c>
       <c r="CL2" t="n">
         <v>94006.17</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>94098.42999999998</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>94211.34999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1403,13 +1419,19 @@
         <v>462485.7499999998</v>
       </c>
       <c r="CJ3" t="n">
-        <v>462429.2399999999</v>
+        <v>462522.6799999999</v>
       </c>
       <c r="CK3" t="n">
-        <v>462429.2399999999</v>
+        <v>462522.6799999999</v>
       </c>
       <c r="CL3" t="n">
-        <v>462429.2399999999</v>
+        <v>462522.6799999999</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>461850.4199999999</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>464607.52</v>
       </c>
     </row>
     <row r="4">
@@ -1663,6 +1685,12 @@
       <c r="CL4" t="n">
         <v>77826.10000000001</v>
       </c>
+      <c r="CM4" t="n">
+        <v>77942.05999999998</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>78030.28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1933,6 +1961,12 @@
       <c r="CL5" t="n">
         <v>94378.54000000001</v>
       </c>
+      <c r="CM5" t="n">
+        <v>94524.53999999999</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>94565.89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2211,6 +2245,12 @@
       <c r="CL6" t="n">
         <v>111995.54</v>
       </c>
+      <c r="CM6" t="n">
+        <v>112193.39</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>112553.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2489,6 +2529,12 @@
       <c r="CL7" t="n">
         <v>2203280.56</v>
       </c>
+      <c r="CM7" t="n">
+        <v>2205518.83</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>2208005.29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2767,6 +2813,12 @@
       <c r="CL8" t="n">
         <v>70462.13</v>
       </c>
+      <c r="CM8" t="n">
+        <v>70479.71000000001</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>70481.69</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -3045,6 +3097,12 @@
       <c r="CL9" t="n">
         <v>117774.96</v>
       </c>
+      <c r="CM9" t="n">
+        <v>117822.83</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>117862.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -3322,6 +3380,12 @@
       </c>
       <c r="CL10" t="n">
         <v>97575.03</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>97671.96999999999</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>97846.03</v>
       </c>
     </row>
     <row r="11">
@@ -3525,6 +3589,12 @@
       <c r="CL11" t="n">
         <v>140801.88</v>
       </c>
+      <c r="CM11" t="n">
+        <v>141198.01</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>142302.56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
